--- a/spliced/falling/2023-03-25_18-00-50/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-50/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.038026362657547</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0577267669141292</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.2557998299598694</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0554360225796699</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-00-50/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-50/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0209221355617046</v>
+        <v>0.0357356183230876</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0384845100343227</v>
+        <v>0.0120645882561802</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0244346093386411</v>
+        <v>0.1313360333442688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.015118914656341</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0719293802976608</v>
+        <v>0.0383317954838275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0126754539087414</v>
+        <v>0.0606283769011497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0360410511493682</v>
+        <v>-0.0204639863222837</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07635815441608421</v>
+        <v>0.0259617734700441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0280998013913631</v>
+        <v>0.0542142912745475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0594066455960273</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1638645976781845</v>
+        <v>0.0203112699091434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08964447677135461</v>
+        <v>-0.0135917514562606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3000875413417816</v>
+        <v>-0.0102319931611418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2225076705217361</v>
+        <v>-0.0829249545931816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1592831164598465</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1927279829978943</v>
+        <v>-0.0244346093386411</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08918632566928859</v>
+        <v>-0.0164933614432811</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0438295826315879</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2567161321640014</v>
+        <v>-0.0384845100343227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5174028873443604</v>
+        <v>-0.0244346093386411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3094032406806946</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3773620128631592</v>
+        <v>0.0719293802976608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2426662147045135</v>
+        <v>0.0126754539087414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.8874344825744629</v>
+        <v>0.0360410511493682</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5309945940971375</v>
+        <v>0.07635815441608421</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.072832107543945</v>
+        <v>0.0280998013913631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5494732856750488</v>
+        <v>0.0594066455960273</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0032070425804704</v>
+        <v>-0.1638645976781845</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.098474740982056</v>
+        <v>0.08964447677135461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.32922911643982</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8979719281196594</v>
+        <v>-0.3000875413417816</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.66692924499512</v>
+        <v>0.2225076705217361</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8862127661705017</v>
+        <v>-0.1592831164598465</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2840523421764374</v>
+        <v>-0.1927279829978943</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5968153476715088</v>
+        <v>0.08918632566928859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3533855378627777</v>
+        <v>-0.0438295826315879</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3121521472930908</v>
+        <v>-0.2567161321640014</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1898263692855835</v>
+        <v>0.5174028873443604</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8429940342903137</v>
+        <v>-0.3094032406806946</v>
       </c>
       <c r="B15" t="n">
-        <v>1.146746754646301</v>
+        <v>-0.3773620128631592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3846924006938934</v>
+        <v>0.2426662147045135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1217148974537849</v>
+        <v>-0.8874344825744629</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2727513313293457</v>
+        <v>0.5309945940971375</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4853324294090271</v>
+        <v>-1.072832107543945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2441933751106262</v>
+        <v>0.5494732856750488</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1647808998823166</v>
+        <v>0.0032070425804704</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.333379715681076</v>
+        <v>-2.098474740982056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4331034719944</v>
+        <v>2.32922911643982</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0910189226269722</v>
+        <v>-0.8979719281196594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0595593601465225</v>
+        <v>-10.66692924499512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0045814891345798</v>
+        <v>-0.8862127661705017</v>
       </c>
       <c r="B19" t="n">
-        <v>0.061391957104206</v>
+        <v>-0.2840523421764374</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1099557429552078</v>
+        <v>-0.5968153476715088</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2038762718439102</v>
+        <v>0.3533855378627777</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3239113092422485</v>
+        <v>0.3121521472930908</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1649336218833923</v>
+        <v>-0.1898263692855835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.8429940342903137</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.146746754646301</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3846924006938934</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1217148974537849</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2727513313293457</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4853324294090271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2441933751106262</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1647808998823166</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.333379715681076</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4331034719944</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0910189226269722</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0595593601465225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0045814891345798</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.061391957104206</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1099557429552078</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.2038762718439102</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.3239113092422485</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1649336218833923</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-0.07635815441608421</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>-0.2206750661134719</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>0.038026362657547</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0577267669141292</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2557998299598694</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0554360225796699</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0160352122038602</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.030695978552103</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0510072484612464</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0320704244077205</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.107512280344963</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.04505131021142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0154243474826216</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1117883399128913</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0210748501121997</v>
       </c>
     </row>
   </sheetData>
